--- a/DataSheets/Motorola/Bus Sizing Operation.xlsx
+++ b/DataSheets/Motorola/Bus Sizing Operation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason.neus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C08B6CA5-2EAD-467F-9F49-7BE0B05BF47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFECF424-7E5C-4E45-98F7-48CD17925DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AC179C9-5BE4-4C31-9BF2-3210A9DC7E38}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{2AC179C9-5BE4-4C31-9BF2-3210A9DC7E38}"/>
   </bookViews>
   <sheets>
     <sheet name="Read" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="36">
   <si>
     <t>AMIGA</t>
   </si>
@@ -108,6 +108,27 @@
   </si>
   <si>
     <t>Any transfer from long word port</t>
+  </si>
+  <si>
+    <t>SIZ</t>
+  </si>
+  <si>
+    <t>00,11</t>
+  </si>
+  <si>
+    <t>01,10</t>
+  </si>
+  <si>
+    <t>PORTSIZE</t>
+  </si>
+  <si>
+    <t>A[1:0]</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Passthrough</t>
   </si>
 </sst>
 </file>
@@ -172,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -184,12 +205,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -524,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DB241F-51C3-4513-8559-DBBB5B41421F}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -538,27 +557,27 @@
     <col min="6" max="6" width="2.28515625" style="1" customWidth="1"/>
     <col min="7" max="11" width="10.140625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="13" max="14" width="10.140625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="9">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="8">
         <v>68040</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="G1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -581,42 +600,42 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -645,12 +664,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L7" s="2" t="s">
         <v>12</v>
       </c>
@@ -663,8 +682,17 @@
       <c r="O7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -705,14 +733,23 @@
       <c r="O8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -721,13 +758,13 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -756,7 +793,6 @@
       <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="7"/>
       <c r="L12" s="6">
         <v>0</v>
       </c>
@@ -769,8 +805,17 @@
       <c r="O12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -799,7 +844,6 @@
       <c r="J13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="7"/>
       <c r="L13" s="6">
         <v>1</v>
       </c>
@@ -812,51 +856,44 @@
       <c r="O13" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="P13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -885,7 +922,6 @@
       <c r="J18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="7"/>
       <c r="L18" s="6">
         <v>0</v>
       </c>
@@ -898,41 +934,38 @@
       <c r="O18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="P18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -961,7 +994,6 @@
       <c r="J22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="7"/>
       <c r="L22" s="6">
         <v>1</v>
       </c>
@@ -973,6 +1005,15 @@
       </c>
       <c r="O22" s="6">
         <v>1</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5437283-CA16-4725-BB9B-C9D6AB1DB50C}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -1000,27 +1041,27 @@
     <col min="6" max="6" width="2.28515625" style="1" customWidth="1"/>
     <col min="7" max="11" width="10.140625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="13" max="14" width="10.140625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="9">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="8">
         <v>68040</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="G1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1043,42 +1084,42 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1107,12 +1148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1125,8 +1166,17 @@
       <c r="O7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1167,14 +1217,23 @@
       <c r="O8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1183,13 +1242,13 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1218,7 +1277,6 @@
       <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="7"/>
       <c r="L12" s="6">
         <v>0</v>
       </c>
@@ -1231,8 +1289,17 @@
       <c r="O12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1328,6 @@
       <c r="J13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="7"/>
       <c r="L13" s="6">
         <v>1</v>
       </c>
@@ -1274,51 +1340,44 @@
       <c r="O13" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="P13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1347,7 +1406,6 @@
       <c r="J18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="7"/>
       <c r="L18" s="6">
         <v>0</v>
       </c>
@@ -1360,41 +1418,38 @@
       <c r="O18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="P18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1478,6 @@
       <c r="J22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="7"/>
       <c r="L22" s="6">
         <v>1</v>
       </c>
@@ -1435,6 +1489,15 @@
       </c>
       <c r="O22" s="6">
         <v>1</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
